--- a/biology/Botanique/Akadama/Akadama.xlsx
+++ b/biology/Botanique/Akadama/Akadama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'akadama (du japonais 赤 [aka] : rouge et 玉 [tama] : balle) est une argile granuleuse de couleur rouge brun utilisée comme substrat de culture neutre principalement pour les bonsaïs. On la trouve uniquement au Japon.
 L'origine volcanique de l'akadama en fait une sorte de terre cuite mais « à peine » cuite. Contrairement à l'argile ordinaire, l'akadama a une texture solide et ne se tasse donc pas. Les grains d'akadama ont une bonne tenue et ne deviennent friables que s'ils sont comprimés de façon assez importante ou après 2 à 3 ans d'arrosage régulier. Lorsqu'on utilise l'akadama comme substrat pour bonsaï, c'est à ce moment-là qu'on procède au rempotage pour éviter que les racines ne manquent d'air.
@@ -512,7 +524,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La structure et la granulométrie de ce substrat permettent de conserver un niveau d'aération, de drainage et d'humidité idéal pour le bon développement des végétaux en favorisant la pousse des racines.
 Le fait que sa couleur soit très marquée par son taux d'humidité facilite le suivi du cycle d'arrosage. 
@@ -549,7 +563,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Composition : SiO2 42,7 %  CaO 0,98 %  MgO 2,5 %  MnO 0,15 %  Fe2O3 8,4 %  Al2O3 25,1 %
 pH = 6.9
